--- a/samples/samples.xlsx
+++ b/samples/samples.xlsx
@@ -1,30 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -43,13 +42,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -374,117 +440,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Class</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Section</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Roll</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>a pcb</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Roll</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>A</v>
-      </c>
-      <c r="C2" t="str">
-        <v>12</v>
-      </c>
-      <c r="D2" t="str">
-        <v>L</v>
-      </c>
-      <c r="E2" t="str">
-        <v>16</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>a b c b</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>B</v>
-      </c>
-      <c r="C3" t="str">
-        <v>12</v>
-      </c>
-      <c r="D3" t="str">
-        <v>L</v>
-      </c>
-      <c r="E3" t="str">
-        <v>31</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>C</v>
-      </c>
-      <c r="C4" t="str">
-        <v>12</v>
-      </c>
-      <c r="D4" t="str">
-        <v>L</v>
-      </c>
-      <c r="E4" t="str">
-        <v>6</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>D</v>
-      </c>
-      <c r="C5" t="str">
-        <v>12</v>
-      </c>
-      <c r="D5" t="str">
-        <v>L</v>
-      </c>
-      <c r="E5" t="str">
-        <v>20</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <v>E</v>
-      </c>
-      <c r="C6" t="str">
-        <v>12</v>
-      </c>
-      <c r="D6" t="str">
-        <v>L</v>
-      </c>
-      <c r="E6" t="str">
-        <v>1</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/samples/samples.xlsx
+++ b/samples/samples.xlsx
@@ -1,35 +1,446 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="28800" windowHeight="12510"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -37,85 +448,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -237,7 +875,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -258,9 +896,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="true"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -277,7 +915,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -347,7 +985,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -373,7 +1011,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -435,187 +1073,124 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>a pcb</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Section</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Roll</t>
-        </is>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>a b c b</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/samples/samples.xlsx
+++ b/samples/samples.xlsx
@@ -14,18 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
   <si>
     <t>Roll</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Section</t>
   </si>
   <si>
     <t>1</t>
@@ -81,9 +84,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -104,6 +107,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -111,7 +136,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,11 +180,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,111 +248,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -255,61 +258,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,121 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,15 +461,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -478,6 +472,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,32 +515,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,159 +535,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,7 +1085,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1101,92 +1104,92 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
